--- a/Code/Results/Cases/Case_5_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_238/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.083910048438383</v>
+        <v>2.462849570000685</v>
       </c>
       <c r="C2">
-        <v>0.7824095879817321</v>
+        <v>0.2267414144939437</v>
       </c>
       <c r="D2">
-        <v>0.0669542902171969</v>
+        <v>0.1261810435928297</v>
       </c>
       <c r="E2">
-        <v>0.03374457810035114</v>
+        <v>0.05179948103840104</v>
       </c>
       <c r="F2">
-        <v>2.590444526255283</v>
+        <v>2.512590215698481</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.149438880918801</v>
+        <v>0.1935801646044268</v>
       </c>
       <c r="M2">
-        <v>0.6254142580026922</v>
+        <v>0.4435440823366008</v>
       </c>
       <c r="N2">
-        <v>1.396008983703467</v>
+        <v>2.342519244637273</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.546489984438438</v>
+        <v>2.33973469034612</v>
       </c>
       <c r="C3">
-        <v>0.6739081575259149</v>
+        <v>0.1971758706339131</v>
       </c>
       <c r="D3">
-        <v>0.06764431848188224</v>
+        <v>0.1267737299601492</v>
       </c>
       <c r="E3">
-        <v>0.03217747386881964</v>
+        <v>0.0512734343788015</v>
       </c>
       <c r="F3">
-        <v>2.340320051600031</v>
+        <v>2.463575717351986</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1351873982341587</v>
+        <v>0.1912509182811277</v>
       </c>
       <c r="M3">
-        <v>0.5461042636370479</v>
+        <v>0.4261271886266798</v>
       </c>
       <c r="N3">
-        <v>1.421022940004761</v>
+        <v>2.353551735120377</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.22341047977028</v>
+        <v>2.265725309365791</v>
       </c>
       <c r="C4">
-        <v>0.6083647429722419</v>
+        <v>0.1790397719284158</v>
       </c>
       <c r="D4">
-        <v>0.06820165381986953</v>
+        <v>0.1271821046594894</v>
       </c>
       <c r="E4">
-        <v>0.03122775428962754</v>
+        <v>0.05094355868138578</v>
       </c>
       <c r="F4">
-        <v>2.192596101961385</v>
+        <v>2.43497697852662</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1266995785210909</v>
+        <v>0.1899219057064343</v>
       </c>
       <c r="M4">
-        <v>0.4984878254004883</v>
+        <v>0.4157147108890342</v>
       </c>
       <c r="N4">
-        <v>1.438550607952067</v>
+        <v>2.361022628853334</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.093261595361298</v>
+        <v>2.235961576801287</v>
       </c>
       <c r="C5">
-        <v>0.5818800420460377</v>
+        <v>0.1716527671448773</v>
       </c>
       <c r="D5">
-        <v>0.06845989427807098</v>
+        <v>0.1273596603936547</v>
       </c>
       <c r="E5">
-        <v>0.03084304944434013</v>
+        <v>0.05080738384054229</v>
       </c>
       <c r="F5">
-        <v>2.1337131489109</v>
+        <v>2.423696730668325</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1233002899551963</v>
+        <v>0.1894057176093469</v>
       </c>
       <c r="M5">
-        <v>0.4793216937269307</v>
+        <v>0.4115419923478001</v>
       </c>
       <c r="N5">
-        <v>1.446204127764076</v>
+        <v>2.364241640070574</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.071735374679406</v>
+        <v>2.231043157541933</v>
       </c>
       <c r="C6">
-        <v>0.5774945905367019</v>
+        <v>0.1704263568157103</v>
       </c>
       <c r="D6">
-        <v>0.06850458672313664</v>
+        <v>0.127389815017164</v>
       </c>
       <c r="E6">
-        <v>0.03077928675176267</v>
+        <v>0.05078466603800624</v>
       </c>
       <c r="F6">
-        <v>2.124010853961309</v>
+        <v>2.421846174276567</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1227392599113131</v>
+        <v>0.1893215376320754</v>
       </c>
       <c r="M6">
-        <v>0.4761526177224127</v>
+        <v>0.4108533605601821</v>
       </c>
       <c r="N6">
-        <v>1.447504894000176</v>
+        <v>2.364786677732639</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.221649421638915</v>
+        <v>2.265322306450628</v>
       </c>
       <c r="C7">
-        <v>0.6080067085870269</v>
+        <v>0.178940134573395</v>
       </c>
       <c r="D7">
-        <v>0.06820501362998499</v>
+        <v>0.1271844541888676</v>
       </c>
       <c r="E7">
-        <v>0.03122255768566973</v>
+        <v>0.05094172927916851</v>
       </c>
       <c r="F7">
-        <v>2.191796854351395</v>
+        <v>2.434823338025708</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1266535014840073</v>
+        <v>0.1899148414408742</v>
       </c>
       <c r="M7">
-        <v>0.4982284230487366</v>
+        <v>0.4156581513566024</v>
       </c>
       <c r="N7">
-        <v>1.438651800879825</v>
+        <v>2.361065335703088</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.897032819330548</v>
+        <v>2.420069291190828</v>
       </c>
       <c r="C8">
-        <v>0.7447456283332201</v>
+        <v>0.2165431763658319</v>
       </c>
       <c r="D8">
-        <v>0.06716289103590611</v>
+        <v>0.1263761488004818</v>
       </c>
       <c r="E8">
-        <v>0.03320112110246853</v>
+        <v>0.0516195175781009</v>
       </c>
       <c r="F8">
-        <v>2.502887985097061</v>
+        <v>2.495378032804183</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.144466366074532</v>
+        <v>0.1927560197513642</v>
       </c>
       <c r="M8">
-        <v>0.597822678622066</v>
+        <v>0.4374800784492265</v>
       </c>
       <c r="N8">
-        <v>1.404161766133868</v>
+        <v>2.3461781948089</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.287678490689814</v>
+        <v>2.736227738671687</v>
       </c>
       <c r="C9">
-        <v>1.023781901534477</v>
+        <v>0.2904566404552327</v>
       </c>
       <c r="D9">
-        <v>0.06630740832746795</v>
+        <v>0.1251457441737998</v>
       </c>
       <c r="E9">
-        <v>0.03722306214956994</v>
+        <v>0.05289489744471965</v>
       </c>
       <c r="F9">
-        <v>3.167301322499867</v>
+        <v>2.626112249226566</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1818090665432024</v>
+        <v>0.1991326153030215</v>
       </c>
       <c r="M9">
-        <v>0.803407096581175</v>
+        <v>0.4825258030473805</v>
       </c>
       <c r="N9">
-        <v>1.355486584220571</v>
+        <v>2.322545106758824</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.368063447883173</v>
+        <v>2.976467311397016</v>
       </c>
       <c r="C10">
-        <v>1.239190012231404</v>
+        <v>0.3449235667933976</v>
       </c>
       <c r="D10">
-        <v>0.06660965005026043</v>
+        <v>0.1244606681742582</v>
       </c>
       <c r="E10">
-        <v>0.04033474061218989</v>
+        <v>0.05380036671954258</v>
       </c>
       <c r="F10">
-        <v>3.701202916202561</v>
+        <v>2.729641756673601</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2112348082349911</v>
+        <v>0.2043125403092318</v>
       </c>
       <c r="M10">
-        <v>0.9634395609423976</v>
+        <v>0.5170249657290782</v>
       </c>
       <c r="N10">
-        <v>1.334069455058696</v>
+        <v>2.308615053884353</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.877152585804197</v>
+        <v>3.08753569845743</v>
       </c>
       <c r="C11">
-        <v>1.340447229296899</v>
+        <v>0.3697499892008977</v>
       </c>
       <c r="D11">
-        <v>0.06700541883871836</v>
+        <v>0.124197138447073</v>
       </c>
       <c r="E11">
-        <v>0.04180368687294589</v>
+        <v>0.05420570636084854</v>
       </c>
       <c r="F11">
-        <v>3.957371551690613</v>
+        <v>2.778402473010146</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2251902488142719</v>
+        <v>0.2067775197209869</v>
       </c>
       <c r="M11">
-        <v>1.038915093212367</v>
+        <v>0.5330314114518799</v>
       </c>
       <c r="N11">
-        <v>1.328183962931277</v>
+        <v>2.303032930292858</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.072943985451559</v>
+        <v>3.129854200066745</v>
       </c>
       <c r="C12">
-        <v>1.37936037823556</v>
+        <v>0.3791591112515675</v>
       </c>
       <c r="D12">
-        <v>0.06719812750719001</v>
+        <v>0.124104315524832</v>
       </c>
       <c r="E12">
-        <v>0.0423695969829474</v>
+        <v>0.05435827494959256</v>
       </c>
       <c r="F12">
-        <v>4.05661914972211</v>
+        <v>2.797109177730334</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2305701306061536</v>
+        <v>0.2077266295709137</v>
       </c>
       <c r="M12">
-        <v>1.067951603733846</v>
+        <v>0.5391380859501851</v>
       </c>
       <c r="N12">
-        <v>1.326584168697636</v>
+        <v>2.301028456949837</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.03063450789881</v>
+        <v>3.120728571409188</v>
       </c>
       <c r="C13">
-        <v>1.370952659516831</v>
+        <v>0.3771323240242737</v>
       </c>
       <c r="D13">
-        <v>0.06715461738826889</v>
+        <v>0.1241239957794136</v>
       </c>
       <c r="E13">
-        <v>0.04224725353823366</v>
+        <v>0.05432545739714101</v>
       </c>
       <c r="F13">
-        <v>4.035138860214801</v>
+        <v>2.793069543975264</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2294070054878006</v>
+        <v>0.2075215236522325</v>
       </c>
       <c r="M13">
-        <v>1.061676564118784</v>
+        <v>0.5378208790629202</v>
       </c>
       <c r="N13">
-        <v>1.326899430784721</v>
+        <v>2.301455279218928</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.893197128112263</v>
+        <v>3.091012052373742</v>
       </c>
       <c r="C14">
-        <v>1.343636601499327</v>
+        <v>0.3705239203229667</v>
       </c>
       <c r="D14">
-        <v>0.06702037830994811</v>
+        <v>0.1241893618623493</v>
       </c>
       <c r="E14">
-        <v>0.04185003861443981</v>
+        <v>0.05421827669387902</v>
       </c>
       <c r="F14">
-        <v>3.965489697092778</v>
+        <v>2.779936617552011</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2256308620172405</v>
+        <v>0.2068552890541469</v>
       </c>
       <c r="M14">
-        <v>1.041294369390755</v>
+        <v>0.5335328992426227</v>
       </c>
       <c r="N14">
-        <v>1.328039274620139</v>
+        <v>2.30286582463637</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.80942024211322</v>
+        <v>3.072843688059493</v>
       </c>
       <c r="C15">
-        <v>1.326982085777843</v>
+        <v>0.3664771351649847</v>
       </c>
       <c r="D15">
-        <v>0.06694391809656253</v>
+        <v>0.1242303097207866</v>
       </c>
       <c r="E15">
-        <v>0.04160805461491712</v>
+        <v>0.05415250555854279</v>
       </c>
       <c r="F15">
-        <v>3.923130254159418</v>
+        <v>2.771923928000547</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2233307016435333</v>
+        <v>0.2064492443251567</v>
       </c>
       <c r="M15">
-        <v>1.028871302444529</v>
+        <v>0.5309123106331981</v>
       </c>
       <c r="N15">
-        <v>1.328821771145201</v>
+        <v>2.303744090515366</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.335186900718384</v>
+        <v>2.969244851402379</v>
       </c>
       <c r="C16">
-        <v>1.232646499336397</v>
+        <v>0.3433021610678679</v>
       </c>
       <c r="D16">
-        <v>0.06658944809482392</v>
+        <v>0.1244788630098768</v>
       </c>
       <c r="E16">
-        <v>0.04023997695392367</v>
+        <v>0.0537737463771446</v>
       </c>
       <c r="F16">
-        <v>3.684756299282839</v>
+        <v>2.726488856198415</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2103353452731938</v>
+        <v>0.2041536384620599</v>
       </c>
       <c r="M16">
-        <v>0.9585667101865951</v>
+        <v>0.5159852336579789</v>
       </c>
       <c r="N16">
-        <v>1.334537787625464</v>
+        <v>2.3089951162369</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.049089234189978</v>
+        <v>2.906148922516934</v>
       </c>
       <c r="C17">
-        <v>1.175677352487241</v>
+        <v>0.3290982369070434</v>
       </c>
       <c r="D17">
-        <v>0.06644190164388419</v>
+        <v>0.1246437018731257</v>
       </c>
       <c r="E17">
-        <v>0.03941568275658547</v>
+        <v>0.05353972241722715</v>
       </c>
       <c r="F17">
-        <v>3.542146049896559</v>
+        <v>2.699044174495327</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2025178861860439</v>
+        <v>0.2027732158910993</v>
       </c>
       <c r="M17">
-        <v>0.9161695478400418</v>
+        <v>0.5069083224728317</v>
       </c>
       <c r="N17">
-        <v>1.339081583296277</v>
+        <v>2.312410338694363</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.886159068804659</v>
+        <v>2.870025376367607</v>
       </c>
       <c r="C18">
-        <v>1.143210906982915</v>
+        <v>0.3209330907955632</v>
       </c>
       <c r="D18">
-        <v>0.06638095392626298</v>
+        <v>0.1247430384959216</v>
       </c>
       <c r="E18">
-        <v>0.03894646270623525</v>
+        <v>0.05340449914525891</v>
       </c>
       <c r="F18">
-        <v>3.461349186111335</v>
+        <v>2.683415237091339</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1980741898085512</v>
+        <v>0.2019894521868935</v>
       </c>
       <c r="M18">
-        <v>0.8920308773755465</v>
+        <v>0.5017169206700842</v>
       </c>
       <c r="N18">
-        <v>1.342053047624162</v>
+        <v>2.314445672688137</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.831259547298259</v>
+        <v>2.857823252140463</v>
       </c>
       <c r="C19">
-        <v>1.132267193320047</v>
+        <v>0.3181692734490014</v>
       </c>
       <c r="D19">
-        <v>0.06636426765278713</v>
+        <v>0.124777447912173</v>
       </c>
       <c r="E19">
-        <v>0.0387883787242167</v>
+        <v>0.05335860800106573</v>
       </c>
       <c r="F19">
-        <v>3.434194543674153</v>
+        <v>2.678150347662353</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1965783060403936</v>
+        <v>0.201725836619957</v>
       </c>
       <c r="M19">
-        <v>0.8838983858911291</v>
+        <v>0.4999642373630095</v>
       </c>
       <c r="N19">
-        <v>1.34311854310242</v>
+        <v>2.315146969109108</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.079373346257682</v>
+        <v>2.912848227931534</v>
       </c>
       <c r="C20">
-        <v>1.181710023608446</v>
+        <v>0.3306097893930087</v>
       </c>
       <c r="D20">
-        <v>0.06645509467476529</v>
+        <v>0.1246256857373567</v>
       </c>
       <c r="E20">
-        <v>0.03950291081684476</v>
+        <v>0.05356469858216073</v>
       </c>
       <c r="F20">
-        <v>3.557197748031257</v>
+        <v>2.70194948926121</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2033445233247164</v>
+        <v>0.2029191062029412</v>
       </c>
       <c r="M20">
-        <v>0.9206567502949596</v>
+        <v>0.5078715295689662</v>
       </c>
       <c r="N20">
-        <v>1.338560336547559</v>
+        <v>2.312039429459517</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.933479940288805</v>
+        <v>3.099733452100338</v>
       </c>
       <c r="C21">
-        <v>1.351643667536507</v>
+        <v>0.3724647477567373</v>
       </c>
       <c r="D21">
-        <v>0.06705859452456764</v>
+        <v>0.1241699726809955</v>
       </c>
       <c r="E21">
-        <v>0.04196643080173068</v>
+        <v>0.05424978320893281</v>
       </c>
       <c r="F21">
-        <v>3.98588360118589</v>
+        <v>2.783787484600111</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2267373050013219</v>
+        <v>0.207050552397277</v>
       </c>
       <c r="M21">
-        <v>1.047268131129698</v>
+        <v>0.5347911477622631</v>
       </c>
       <c r="N21">
-        <v>1.32768675515571</v>
+        <v>2.302448538720498</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.509513487578602</v>
+        <v>3.223386689591337</v>
       </c>
       <c r="C22">
-        <v>1.466081621425189</v>
+        <v>0.3998657928136709</v>
       </c>
       <c r="D22">
-        <v>0.06770612875949666</v>
+        <v>0.1239127892285552</v>
       </c>
       <c r="E22">
-        <v>0.04363393693122575</v>
+        <v>0.05469214454197591</v>
       </c>
       <c r="F22">
-        <v>4.279316416463075</v>
+        <v>2.838685660932924</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.242588825428669</v>
+        <v>0.2098420896092534</v>
       </c>
       <c r="M22">
-        <v>1.132712628794209</v>
+        <v>0.5526493957191789</v>
       </c>
       <c r="N22">
-        <v>1.324289592337834</v>
+        <v>2.296818138332512</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.200264451257112</v>
+        <v>3.1572511737902</v>
       </c>
       <c r="C23">
-        <v>1.404657709460423</v>
+        <v>0.3852368157880051</v>
       </c>
       <c r="D23">
-        <v>0.06733521215836191</v>
+        <v>0.1240463160833656</v>
       </c>
       <c r="E23">
-        <v>0.04273795028060512</v>
+        <v>0.05445653399992345</v>
       </c>
       <c r="F23">
-        <v>4.121368964034559</v>
+        <v>2.809255337126046</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.234072092895147</v>
+        <v>0.2083438108711704</v>
       </c>
       <c r="M23">
-        <v>1.086836164503417</v>
+        <v>0.5430937461572043</v>
       </c>
       <c r="N23">
-        <v>1.325735539606697</v>
+        <v>2.299764553755978</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.065677102614302</v>
+        <v>2.909819001402241</v>
       </c>
       <c r="C24">
-        <v>1.178981769843745</v>
+        <v>0.329926413837768</v>
       </c>
       <c r="D24">
-        <v>0.06644905614657404</v>
+        <v>0.1246338166059289</v>
       </c>
       <c r="E24">
-        <v>0.03946346058427785</v>
+        <v>0.05355340897678218</v>
       </c>
       <c r="F24">
-        <v>3.550389187801215</v>
+        <v>2.700635531387746</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2029706438463705</v>
+        <v>0.2028531184865585</v>
       </c>
       <c r="M24">
-        <v>0.9186273561049347</v>
+        <v>0.5074359794639633</v>
       </c>
       <c r="N24">
-        <v>1.338794878915508</v>
+        <v>2.312206893705778</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.902636348944782</v>
+        <v>2.649316820617571</v>
       </c>
       <c r="C25">
-        <v>0.9467715602355042</v>
+        <v>0.2704366529125934</v>
       </c>
       <c r="D25">
-        <v>0.06639216504591872</v>
+        <v>0.1254403567332787</v>
       </c>
       <c r="E25">
-        <v>0.03611322635880221</v>
+        <v>0.05255550338570814</v>
       </c>
       <c r="F25">
-        <v>2.980537126191336</v>
+        <v>2.589444330953796</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1713989626067018</v>
+        <v>0.197320958174025</v>
       </c>
       <c r="M25">
-        <v>0.7464306642758629</v>
+        <v>0.4700954177488015</v>
       </c>
       <c r="N25">
-        <v>1.366359758734887</v>
+        <v>2.32833875154634</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_238/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.462849570000685</v>
+        <v>4.083910048438383</v>
       </c>
       <c r="C2">
-        <v>0.2267414144939437</v>
+        <v>0.7824095879817321</v>
       </c>
       <c r="D2">
-        <v>0.1261810435928297</v>
+        <v>0.06695429021716848</v>
       </c>
       <c r="E2">
-        <v>0.05179948103840104</v>
+        <v>0.03374457810040354</v>
       </c>
       <c r="F2">
-        <v>2.512590215698481</v>
+        <v>2.590444526255311</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1935801646044268</v>
+        <v>0.1494388809186944</v>
       </c>
       <c r="M2">
-        <v>0.4435440823366008</v>
+        <v>0.6254142580026851</v>
       </c>
       <c r="N2">
-        <v>2.342519244637273</v>
+        <v>1.39600898370341</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.33973469034612</v>
+        <v>3.546489984438438</v>
       </c>
       <c r="C3">
-        <v>0.1971758706339131</v>
+        <v>0.6739081575261423</v>
       </c>
       <c r="D3">
-        <v>0.1267737299601492</v>
+        <v>0.06764431848201724</v>
       </c>
       <c r="E3">
-        <v>0.0512734343788015</v>
+        <v>0.0321774738688223</v>
       </c>
       <c r="F3">
-        <v>2.463575717351986</v>
+        <v>2.34032005160006</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1912509182811277</v>
+        <v>0.1351873982340805</v>
       </c>
       <c r="M3">
-        <v>0.4261271886266798</v>
+        <v>0.5461042636370408</v>
       </c>
       <c r="N3">
-        <v>2.353551735120377</v>
+        <v>1.421022940004747</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.265725309365791</v>
+        <v>3.22341047977028</v>
       </c>
       <c r="C4">
-        <v>0.1790397719284158</v>
+        <v>0.6083647429726113</v>
       </c>
       <c r="D4">
-        <v>0.1271821046594894</v>
+        <v>0.06820165381986953</v>
       </c>
       <c r="E4">
-        <v>0.05094355868138578</v>
+        <v>0.03122775428961067</v>
       </c>
       <c r="F4">
-        <v>2.43497697852662</v>
+        <v>2.192596101961399</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1899219057064343</v>
+        <v>0.1266995785211478</v>
       </c>
       <c r="M4">
-        <v>0.4157147108890342</v>
+        <v>0.4984878254004954</v>
       </c>
       <c r="N4">
-        <v>2.361022628853334</v>
+        <v>1.438550607952124</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.235961576801287</v>
+        <v>3.093261595361355</v>
       </c>
       <c r="C5">
-        <v>0.1716527671448773</v>
+        <v>0.5818800420460377</v>
       </c>
       <c r="D5">
-        <v>0.1273596603936547</v>
+        <v>0.06845989427806387</v>
       </c>
       <c r="E5">
-        <v>0.05080738384054229</v>
+        <v>0.03084304944435434</v>
       </c>
       <c r="F5">
-        <v>2.423696730668325</v>
+        <v>2.1337131489109</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1894057176093469</v>
+        <v>0.123300289955246</v>
       </c>
       <c r="M5">
-        <v>0.4115419923478001</v>
+        <v>0.4793216937269094</v>
       </c>
       <c r="N5">
-        <v>2.364241640070574</v>
+        <v>1.446204127764076</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.231043157541933</v>
+        <v>3.07173537467952</v>
       </c>
       <c r="C6">
-        <v>0.1704263568157103</v>
+        <v>0.577494590536503</v>
       </c>
       <c r="D6">
-        <v>0.127389815017164</v>
+        <v>0.06850458672293769</v>
       </c>
       <c r="E6">
-        <v>0.05078466603800624</v>
+        <v>0.03077928675176445</v>
       </c>
       <c r="F6">
-        <v>2.421846174276567</v>
+        <v>2.124010853961309</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1893215376320754</v>
+        <v>0.1227392599113131</v>
       </c>
       <c r="M6">
-        <v>0.4108533605601821</v>
+        <v>0.476152617722434</v>
       </c>
       <c r="N6">
-        <v>2.364786677732639</v>
+        <v>1.44750489400019</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.265322306450628</v>
+        <v>3.221649421638745</v>
       </c>
       <c r="C7">
-        <v>0.178940134573395</v>
+        <v>0.6080067085870269</v>
       </c>
       <c r="D7">
-        <v>0.1271844541888676</v>
+        <v>0.06820501362997433</v>
       </c>
       <c r="E7">
-        <v>0.05094172927916851</v>
+        <v>0.03122255768568749</v>
       </c>
       <c r="F7">
-        <v>2.434823338025708</v>
+        <v>2.191796854351395</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1899148414408742</v>
+        <v>0.1266535014840144</v>
       </c>
       <c r="M7">
-        <v>0.4156581513566024</v>
+        <v>0.4982284230487295</v>
       </c>
       <c r="N7">
-        <v>2.361065335703088</v>
+        <v>1.438651800879768</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.420069291190828</v>
+        <v>3.897032819330775</v>
       </c>
       <c r="C8">
-        <v>0.2165431763658319</v>
+        <v>0.7447456283332485</v>
       </c>
       <c r="D8">
-        <v>0.1263761488004818</v>
+        <v>0.06716289103600559</v>
       </c>
       <c r="E8">
-        <v>0.0516195175781009</v>
+        <v>0.03320112110249251</v>
       </c>
       <c r="F8">
-        <v>2.495378032804183</v>
+        <v>2.502887985097018</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1927560197513642</v>
+        <v>0.1444663660745746</v>
       </c>
       <c r="M8">
-        <v>0.4374800784492265</v>
+        <v>0.5978226786220873</v>
       </c>
       <c r="N8">
-        <v>2.3461781948089</v>
+        <v>1.404161766133925</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.736227738671687</v>
+        <v>5.287678490689586</v>
       </c>
       <c r="C9">
-        <v>0.2904566404552327</v>
+        <v>1.023781901534733</v>
       </c>
       <c r="D9">
-        <v>0.1251457441737998</v>
+        <v>0.06630740832746795</v>
       </c>
       <c r="E9">
-        <v>0.05289489744471965</v>
+        <v>0.03722306214959925</v>
       </c>
       <c r="F9">
-        <v>2.626112249226566</v>
+        <v>3.167301322499867</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1991326153030215</v>
+        <v>0.1818090665431029</v>
       </c>
       <c r="M9">
-        <v>0.4825258030473805</v>
+        <v>0.8034070965811679</v>
       </c>
       <c r="N9">
-        <v>2.322545106758824</v>
+        <v>1.355486584220642</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.976467311397016</v>
+        <v>6.36806344788306</v>
       </c>
       <c r="C10">
-        <v>0.3449235667933976</v>
+        <v>1.23919001223129</v>
       </c>
       <c r="D10">
-        <v>0.1244606681742582</v>
+        <v>0.06660965005038832</v>
       </c>
       <c r="E10">
-        <v>0.05380036671954258</v>
+        <v>0.04033474061218634</v>
       </c>
       <c r="F10">
-        <v>2.729641756673601</v>
+        <v>3.70120291620259</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2043125403092318</v>
+        <v>0.2112348082351474</v>
       </c>
       <c r="M10">
-        <v>0.5170249657290782</v>
+        <v>0.9634395609424047</v>
       </c>
       <c r="N10">
-        <v>2.308615053884353</v>
+        <v>1.334069455058739</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.08753569845743</v>
+        <v>6.877152585804367</v>
       </c>
       <c r="C11">
-        <v>0.3697499892008977</v>
+        <v>1.340447229296558</v>
       </c>
       <c r="D11">
-        <v>0.124197138447073</v>
+        <v>0.06700541883908073</v>
       </c>
       <c r="E11">
-        <v>0.05420570636084854</v>
+        <v>0.04180368687294234</v>
       </c>
       <c r="F11">
-        <v>2.778402473010146</v>
+        <v>3.957371551690642</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2067775197209869</v>
+        <v>0.2251902488142576</v>
       </c>
       <c r="M11">
-        <v>0.5330314114518799</v>
+        <v>1.038915093212367</v>
       </c>
       <c r="N11">
-        <v>2.303032930292858</v>
+        <v>1.328183962931334</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.129854200066745</v>
+        <v>7.072943985451332</v>
       </c>
       <c r="C12">
-        <v>0.3791591112515675</v>
+        <v>1.379360378235276</v>
       </c>
       <c r="D12">
-        <v>0.124104315524832</v>
+        <v>0.06719812750696974</v>
       </c>
       <c r="E12">
-        <v>0.05435827494959256</v>
+        <v>0.04236959698298293</v>
       </c>
       <c r="F12">
-        <v>2.797109177730334</v>
+        <v>4.056619149722081</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2077266295709137</v>
+        <v>0.2305701306060826</v>
       </c>
       <c r="M12">
-        <v>0.5391380859501851</v>
+        <v>1.067951603733832</v>
       </c>
       <c r="N12">
-        <v>2.301028456949837</v>
+        <v>1.326584168697593</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.120728571409188</v>
+        <v>7.030634507898867</v>
       </c>
       <c r="C13">
-        <v>0.3771323240242737</v>
+        <v>1.370952659517116</v>
       </c>
       <c r="D13">
-        <v>0.1241239957794136</v>
+        <v>0.06715461738850337</v>
       </c>
       <c r="E13">
-        <v>0.05432545739714101</v>
+        <v>0.04224725353823544</v>
       </c>
       <c r="F13">
-        <v>2.793069543975264</v>
+        <v>4.035138860214801</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2075215236522325</v>
+        <v>0.2294070054877722</v>
       </c>
       <c r="M13">
-        <v>0.5378208790629202</v>
+        <v>1.061676564118784</v>
       </c>
       <c r="N13">
-        <v>2.301455279218928</v>
+        <v>1.326899430784707</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.091012052373742</v>
+        <v>6.893197128112263</v>
       </c>
       <c r="C14">
-        <v>0.3705239203229667</v>
+        <v>1.34363660149927</v>
       </c>
       <c r="D14">
-        <v>0.1241893618623493</v>
+        <v>0.06702037830996233</v>
       </c>
       <c r="E14">
-        <v>0.05421827669387902</v>
+        <v>0.04185003861447889</v>
       </c>
       <c r="F14">
-        <v>2.779936617552011</v>
+        <v>3.965489697092778</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2068552890541469</v>
+        <v>0.2256308620172547</v>
       </c>
       <c r="M14">
-        <v>0.5335328992426227</v>
+        <v>1.041294369390755</v>
       </c>
       <c r="N14">
-        <v>2.30286582463637</v>
+        <v>1.328039274620082</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.072843688059493</v>
+        <v>6.809420242113106</v>
       </c>
       <c r="C15">
-        <v>0.3664771351649847</v>
+        <v>1.32698208577807</v>
       </c>
       <c r="D15">
-        <v>0.1242303097207866</v>
+        <v>0.06694391809677569</v>
       </c>
       <c r="E15">
-        <v>0.05415250555854279</v>
+        <v>0.0416080546149189</v>
       </c>
       <c r="F15">
-        <v>2.771923928000547</v>
+        <v>3.923130254159446</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2064492443251567</v>
+        <v>0.2233307016434765</v>
       </c>
       <c r="M15">
-        <v>0.5309123106331981</v>
+        <v>1.028871302444514</v>
       </c>
       <c r="N15">
-        <v>2.303744090515366</v>
+        <v>1.328821771145215</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.969244851402379</v>
+        <v>6.335186900718099</v>
       </c>
       <c r="C16">
-        <v>0.3433021610678679</v>
+        <v>1.232646499335999</v>
       </c>
       <c r="D16">
-        <v>0.1244788630098768</v>
+        <v>0.06658944809461076</v>
       </c>
       <c r="E16">
-        <v>0.0537737463771446</v>
+        <v>0.04023997695390058</v>
       </c>
       <c r="F16">
-        <v>2.726488856198415</v>
+        <v>3.684756299282839</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2041536384620599</v>
+        <v>0.2103353452731653</v>
       </c>
       <c r="M16">
-        <v>0.5159852336579789</v>
+        <v>0.9585667101865667</v>
       </c>
       <c r="N16">
-        <v>2.3089951162369</v>
+        <v>1.334537787625493</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.906148922516934</v>
+        <v>6.049089234190035</v>
       </c>
       <c r="C17">
-        <v>0.3290982369070434</v>
+        <v>1.175677352487298</v>
       </c>
       <c r="D17">
-        <v>0.1246437018731257</v>
+        <v>0.06644190164374919</v>
       </c>
       <c r="E17">
-        <v>0.05353972241722715</v>
+        <v>0.03941568275658724</v>
       </c>
       <c r="F17">
-        <v>2.699044174495327</v>
+        <v>3.54214604989653</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2027732158910993</v>
+        <v>0.2025178861860013</v>
       </c>
       <c r="M17">
-        <v>0.5069083224728317</v>
+        <v>0.9161695478400418</v>
       </c>
       <c r="N17">
-        <v>2.312410338694363</v>
+        <v>1.339081583296291</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.870025376367607</v>
+        <v>5.886159068804716</v>
       </c>
       <c r="C18">
-        <v>0.3209330907955632</v>
+        <v>1.143210906983086</v>
       </c>
       <c r="D18">
-        <v>0.1247430384959216</v>
+        <v>0.0663809539262914</v>
       </c>
       <c r="E18">
-        <v>0.05340449914525891</v>
+        <v>0.03894646270623525</v>
       </c>
       <c r="F18">
-        <v>2.683415237091339</v>
+        <v>3.461349186111363</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2019894521868935</v>
+        <v>0.1980741898084943</v>
       </c>
       <c r="M18">
-        <v>0.5017169206700842</v>
+        <v>0.8920308773755536</v>
       </c>
       <c r="N18">
-        <v>2.314445672688137</v>
+        <v>1.342053047624105</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.857823252140463</v>
+        <v>5.831259547298146</v>
       </c>
       <c r="C19">
-        <v>0.3181692734490014</v>
+        <v>1.132267193319819</v>
       </c>
       <c r="D19">
-        <v>0.124777447912173</v>
+        <v>0.0663642676530074</v>
       </c>
       <c r="E19">
-        <v>0.05335860800106573</v>
+        <v>0.03878837872424157</v>
       </c>
       <c r="F19">
-        <v>2.678150347662353</v>
+        <v>3.434194543674181</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.201725836619957</v>
+        <v>0.1965783060403794</v>
       </c>
       <c r="M19">
-        <v>0.4999642373630095</v>
+        <v>0.8838983858911291</v>
       </c>
       <c r="N19">
-        <v>2.315146969109108</v>
+        <v>1.343118543102392</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.912848227931534</v>
+        <v>6.079373346257455</v>
       </c>
       <c r="C20">
-        <v>0.3306097893930087</v>
+        <v>1.181710023607991</v>
       </c>
       <c r="D20">
-        <v>0.1246256857373567</v>
+        <v>0.06645509467476529</v>
       </c>
       <c r="E20">
-        <v>0.05356469858216073</v>
+        <v>0.03950291081687496</v>
       </c>
       <c r="F20">
-        <v>2.70194948926121</v>
+        <v>3.557197748031285</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2029191062029412</v>
+        <v>0.2033445233246596</v>
       </c>
       <c r="M20">
-        <v>0.5078715295689662</v>
+        <v>0.9206567502949525</v>
       </c>
       <c r="N20">
-        <v>2.312039429459517</v>
+        <v>1.338560336547502</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.099733452100338</v>
+        <v>6.933479940288976</v>
       </c>
       <c r="C21">
-        <v>0.3724647477567373</v>
+        <v>1.35164366753628</v>
       </c>
       <c r="D21">
-        <v>0.1241699726809955</v>
+        <v>0.06705859452398499</v>
       </c>
       <c r="E21">
-        <v>0.05424978320893281</v>
+        <v>0.04196643080183549</v>
       </c>
       <c r="F21">
-        <v>2.783787484600111</v>
+        <v>3.985883601185861</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.207050552397277</v>
+        <v>0.2267373050014072</v>
       </c>
       <c r="M21">
-        <v>0.5347911477622631</v>
+        <v>1.047268131129691</v>
       </c>
       <c r="N21">
-        <v>2.302448538720498</v>
+        <v>1.327686755155753</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.223386689591337</v>
+        <v>7.509513487578715</v>
       </c>
       <c r="C22">
-        <v>0.3998657928136709</v>
+        <v>1.46608162142536</v>
       </c>
       <c r="D22">
-        <v>0.1239127892285552</v>
+        <v>0.06770612875949666</v>
       </c>
       <c r="E22">
-        <v>0.05469214454197591</v>
+        <v>0.04363393693125417</v>
       </c>
       <c r="F22">
-        <v>2.838685660932924</v>
+        <v>4.279316416463104</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2098420896092534</v>
+        <v>0.2425888254285837</v>
       </c>
       <c r="M22">
-        <v>0.5526493957191789</v>
+        <v>1.132712628794209</v>
       </c>
       <c r="N22">
-        <v>2.296818138332512</v>
+        <v>1.324289592337905</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.1572511737902</v>
+        <v>7.200264451257055</v>
       </c>
       <c r="C23">
-        <v>0.3852368157880051</v>
+        <v>1.404657709460423</v>
       </c>
       <c r="D23">
-        <v>0.1240463160833656</v>
+        <v>0.06733521215883798</v>
       </c>
       <c r="E23">
-        <v>0.05445653399992345</v>
+        <v>0.04273795028068506</v>
       </c>
       <c r="F23">
-        <v>2.809255337126046</v>
+        <v>4.121368964034531</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2083438108711704</v>
+        <v>0.2340720928951328</v>
       </c>
       <c r="M23">
-        <v>0.5430937461572043</v>
+        <v>1.08683616450341</v>
       </c>
       <c r="N23">
-        <v>2.299764553755978</v>
+        <v>1.325735539606711</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.909819001402241</v>
+        <v>6.0656771026147</v>
       </c>
       <c r="C24">
-        <v>0.329926413837768</v>
+        <v>1.178981769843858</v>
       </c>
       <c r="D24">
-        <v>0.1246338166059289</v>
+        <v>0.06644905614636087</v>
       </c>
       <c r="E24">
-        <v>0.05355340897678218</v>
+        <v>0.03946346058431516</v>
       </c>
       <c r="F24">
-        <v>2.700635531387746</v>
+        <v>3.550389187801187</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2028531184865585</v>
+        <v>0.2029706438463847</v>
       </c>
       <c r="M24">
-        <v>0.5074359794639633</v>
+        <v>0.9186273561049418</v>
       </c>
       <c r="N24">
-        <v>2.312206893705778</v>
+        <v>1.338794878915479</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.649316820617571</v>
+        <v>4.902636348944839</v>
       </c>
       <c r="C25">
-        <v>0.2704366529125934</v>
+        <v>0.9467715602355327</v>
       </c>
       <c r="D25">
-        <v>0.1254403567332787</v>
+        <v>0.06639216504588319</v>
       </c>
       <c r="E25">
-        <v>0.05255550338570814</v>
+        <v>0.03611322635876402</v>
       </c>
       <c r="F25">
-        <v>2.589444330953796</v>
+        <v>2.980537126191365</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.197320958174025</v>
+        <v>0.1713989626066592</v>
       </c>
       <c r="M25">
-        <v>0.4700954177488015</v>
+        <v>0.7464306642758345</v>
       </c>
       <c r="N25">
-        <v>2.32833875154634</v>
+        <v>1.366359758734944</v>
       </c>
       <c r="O25">
         <v>0</v>
